--- a/biology/Botanique/Feux_de_forêt_de_janvier_2017_au_Chili/Feux_de_forêt_de_janvier_2017_au_Chili.xlsx
+++ b/biology/Botanique/Feux_de_forêt_de_janvier_2017_au_Chili/Feux_de_forêt_de_janvier_2017_au_Chili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Feux_de_for%C3%AAt_de_janvier_2017_au_Chili</t>
+          <t>Feux_de_forêt_de_janvier_2017_au_Chili</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une série d'importants feux de forêts ayant eu lieu dans le centre et le sud du Chili de la mi-janvier 2017 jusqu'en février 2017[1].
-Le bilan s’élève à onze morts et 467 000 hectares brûlés[2].
-À la suite de ces incendies, le Centre des sciences du climat et de la résilience (CR2) publie, en 2020, un rapport recommandant une régulation de l’industrie forestière : « Dans un scénario de changement climatique qui favorise l’augmentation de la fréquence, l’étendue et l’intensité des incendies, [...] il est très important de générer des politiques visant à contrôler des espèces exotiques envahissantes (pins et eucalyptus principalement) et la restauration des écosystèmes indigènes pour réduire la probabilité d’événements catastrophiques[2]. »
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une série d'importants feux de forêts ayant eu lieu dans le centre et le sud du Chili de la mi-janvier 2017 jusqu'en février 2017.
+Le bilan s’élève à onze morts et 467 000 hectares brûlés.
+À la suite de ces incendies, le Centre des sciences du climat et de la résilience (CR2) publie, en 2020, un rapport recommandant une régulation de l’industrie forestière : « Dans un scénario de changement climatique qui favorise l’augmentation de la fréquence, l’étendue et l’intensité des incendies, [...] il est très important de générer des politiques visant à contrôler des espèces exotiques envahissantes (pins et eucalyptus principalement) et la restauration des écosystèmes indigènes pour réduire la probabilité d’événements catastrophiques. »
 </t>
         </is>
       </c>
